--- a/e1.xlsx
+++ b/e1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <x:si>
     <x:t>Employee ID</x:t>
   </x:si>
@@ -110,6 +110,30 @@
   </x:si>
   <x:si>
     <x:t>$32.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soto Randolph</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Financial Analyst</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/23/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercer Cochran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/28/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/03/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$34.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -155,30 +179,14 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -476,7 +484,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L3"/>
+  <x:dimension ref="A1:L4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -527,7 +535,7 @@
       <x:c r="B2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
@@ -594,6 +602,44 @@
       </x:c>
       <x:c r="L3" s="0" t="s">
         <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
